--- a/Lab 09 - Aquation/kinetics_aquation_data_template.xlsx
+++ b/Lab 09 - Aquation/kinetics_aquation_data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerrychen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Experiment 9 - Kinetics of Aquation/Empty Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81225190-FC79-D043-986D-387926DE6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4F4AAA26-1A54-4644-A982-BFDD77D45CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2667D381-38B1-44F2-BBEF-3A24F386F655}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{F20A34B4-87E5-4623-ABE5-607C10FB2BEC}"/>
+    <workbookView xWindow="1050" yWindow="4260" windowWidth="21600" windowHeight="11835" xr2:uid="{F20A34B4-87E5-4623-ABE5-607C10FB2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -50,8 +51,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -79,8 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,10 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,196 +428,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B60CCA4-1FD9-4C3C-B933-239662027BF2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>0.38269999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.16519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>180</v>
-      </c>
-      <c r="B3">
-        <v>0.38129000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0.18223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>240</v>
-      </c>
-      <c r="B4">
-        <v>0.37802999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.20902999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>0.37463000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.23623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>420</v>
-      </c>
-      <c r="B6">
-        <v>0.37081999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>540</v>
-      </c>
-      <c r="B7">
-        <v>0.37440000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.37673000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>660</v>
-      </c>
-      <c r="B8">
-        <v>0.37685999999999997</v>
-      </c>
-      <c r="C8">
-        <v>0.44732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>780</v>
-      </c>
-      <c r="B9">
-        <v>0.37891000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.51312000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>900</v>
-      </c>
-      <c r="B10">
-        <v>0.37809999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.56308999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1020</v>
-      </c>
-      <c r="B11">
-        <v>0.37869000000000003</v>
-      </c>
-      <c r="C11">
-        <v>0.61009000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1200</v>
-      </c>
-      <c r="B12">
-        <v>0.37535000000000002</v>
-      </c>
-      <c r="C12">
-        <v>0.65854000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1500</v>
-      </c>
-      <c r="B13">
-        <v>0.38977000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.74582000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1800</v>
-      </c>
-      <c r="B14">
-        <v>0.38689000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.78935999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2100</v>
-      </c>
-      <c r="B15">
-        <v>0.39308999999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.82632000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2400</v>
-      </c>
-      <c r="B16">
-        <v>0.39251000000000003</v>
-      </c>
-      <c r="C16">
-        <v>0.83455000000000001</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="PyHLlTANeJSSL+kR29DI5z/4uXM6TBEHxbm9yMQCYPUI3zI1SU0N8yqKDsCuRbXqlGFsfgoTEypcagTT1UEyXQ==" saltValue="8Po+7pmHoaCNy5hXuYytwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>